--- a/biology/Médecine/Stanislav_Grof/Stanislav_Grof.xlsx
+++ b/biology/Médecine/Stanislav_Grof/Stanislav_Grof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislav Grof, né à Prague (Tchécoslovaquie) en 1931, est un psychiatre tchèque, pionnier dans la recherche des états modifiés de conscience.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislav Grof commence ses recherches sur les drogues psychédéliques, surtout le LSD, en 1956 à l'Institut de recherches psychiatriques de Prague où il les poursuit jusqu'en 1967. Il part alors pour Baltimore (Maryland, États-Unis) pour devenir chercheur et professeur de psychiatrie à l'université Johns-Hopkins. Vient le Printemps de Prague (janvier-août 1968), il reste aux États-Unis où, de 1967 à 1973, comme chef de projet au Centre de recherches psychiatriques du Maryland, il poursuit ses travaux sur le potentiel psychothérapeutique des états de conscience produits par l'utilisation du LSD dans un contexte approprié. Le programme porte en particulier sur certains types de population (toxicomanes, personnes en phases terminales, etc.) Dans les années 1970, sa première épouse, Joan Halifax, anthropologue, collabore avec lui dans un projet de recherche sur le LSD et sur "la rencontre de l'homme avec la mort". De 1973 à 1987, il est professeur résident à l'Institut Esalen, à Big Sur, Californie, où, avec sa seconde épouse, Christina Grof, professeur de yoga, il développe la "respiration holotropique" (1976).
 Christina Grof est décédée en juin 2014. Depuis avril 2016, Stanislav Grof est mariée à Brigitte Grof née Ashauer. Ils partagent leur vie entre la Californie et l’Allemagne et animent des ateliers et des formations en Respiration Holotropique dans le monde entier.
@@ -546,7 +560,9 @@
           <t>Psychologie périnatale et psychologie transpersonnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislav Grof distingue dans la psyché trois niveaux, trois "plans de l'inconscient" :
 Le biographique et l'inconscient individuel (découvert par Sigmund Freud).
@@ -589,7 +605,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Royaumes de l'inconscient humain : la psychologie des profondeurs dévoilée par l'expérience LSD (Realms of The Human Unconscious: Observations from LSD Research, 1975), Monaco, Éditions du Rocher, 1983, 280 p.
 La rencontre de l'homme avec la mort (en collaboration avec Joan Halifax) (The Human Encounter with Death, 1977), Monaco, Éditions du Rocher, 1982, 281 p.
@@ -605,7 +623,7 @@
 Le jeu cosmique (The Cosmic Game: Explorations of the Frontiers of Human Consciousness, 1998), Éditions du Rocher, 1998
 Pour une psychologie du futur : transformation psychique et paix intérieure (Psychology of the Future: Lessons from Modern Consciousness Research, 2000), Dervy, 2002, 632 p.
 Quand l'impossible arrive : aventures dans les réalités non ordinaires (When the Impossible Happens: Adventures in Non-Ordinary Reality, 2006), traduit de l'anglais par Olivier Clerc, Guy Trédaniel, 2007, 390 p.
-L'ultime voyage : la conscience et le mystère de la mort (The Ultimate Journey: Consciousness and the Mystery of Death, 2006), Guy Trédaniel, 2009, 476 p. [1]
+L'ultime voyage : la conscience et le mystère de la mort (The Ultimate Journey: Consciousness and the Mystery of Death, 2006), Guy Trédaniel, 2009, 476 p. 
 "New Perspectives in Understanding and Treatment of Emotional Disorders", Chapter 13 in Psychedelic Medicine: New Evidence for Hallucinogens as Treatments, Michael J. Winkelman and Thomas B. Roberts (editors) (2007). Westport, CT: Praeger/Greenwood.</t>
         </is>
       </c>
